--- a/timetable/timeline_table.xlsx
+++ b/timetable/timeline_table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1240" windowWidth="24960" windowHeight="13280" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1100" windowWidth="24960" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>content</t>
   </si>
@@ -35,22 +35,88 @@
     <t xml:space="preserve">end </t>
   </si>
   <si>
-    <t>master thesis hand_in</t>
-  </si>
-  <si>
-    <t>paper reading and research proposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD for ODEs </t>
-  </si>
-  <si>
     <t>AD for ODEs+NNs</t>
   </si>
   <si>
+    <t xml:space="preserve">Thesis writing </t>
+  </si>
+  <si>
+    <t>Final presentation preparation</t>
+  </si>
+  <si>
+    <t>Paper reading and research proposal</t>
+  </si>
+  <si>
+    <t>Poster making</t>
+  </si>
+  <si>
+    <t>AD for model 3/model4</t>
+  </si>
+  <si>
+    <t>Buffer time for model 4</t>
+  </si>
+  <si>
+    <t>Find models for ODEs+NN and test simple cases</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Dec.</t>
+  </si>
+  <si>
+    <t>Jan.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Paper reading and propose thesis topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial of easy examples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find suitable models for ODEs+NN modeling </t>
+  </si>
+  <si>
+    <t>intermediate meeting 1</t>
+  </si>
+  <si>
+    <t>31st</t>
+  </si>
+  <si>
+    <t>intermediate meeting 2</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
     <t xml:space="preserve">Final presentation </t>
   </si>
   <si>
-    <t xml:space="preserve">poster </t>
+    <t xml:space="preserve">27th </t>
+  </si>
+  <si>
+    <t>Thsis handin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14th </t>
+  </si>
+  <si>
+    <t>Poster handin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21th </t>
   </si>
 </sst>
 </file>
@@ -60,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,13 +134,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,9 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,19 +452,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,73 +475,274 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
         <v>43739</v>
       </c>
-      <c r="C2" s="1">
-        <v>43935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>43935</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" s="1">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="C4" s="1">
-        <v>43769</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="C5" s="1">
         <v>43824</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>43868</v>
+        <v>43831</v>
       </c>
       <c r="C6" s="1">
-        <v>43569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>43868</v>
       </c>
       <c r="C7" s="1">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C8" s="1">
         <v>43917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>